--- a/src/attributions/attributions_ig_traj_462.xlsx
+++ b/src/attributions/attributions_ig_traj_462.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG17"/>
+  <dimension ref="A1:GG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1432044521154386</v>
+        <v>0.2145816398933766</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2225459007625125</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0504619393913413</v>
+        <v>-0.0230048528435963</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.1281901391059081</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
@@ -2172,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1441034213471384</v>
+        <v>0.1457544000024059</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1889675451745095</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02421834740590318</v>
+        <v>-0.03307489672269789</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.158600791533092</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
@@ -2199,127 +2199,127 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0007858745829475827</v>
+        <v>0.02313543944979994</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.02553963320679236</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.08439560991918231</v>
+        <v>-0.005537403475736234</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.006622208935577782</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.08236889969609801</v>
+        <v>0.04634282462579035</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08888089740150802</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.07856734478846425</v>
+        <v>0.04731868041371649</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0.004096373045738708</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03216350990240364</v>
+        <v>0.01837218074327996</v>
       </c>
       <c r="AM4" t="n">
         <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0276301033061821</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02989866413555661</v>
+        <v>-0.02744633528149651</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.03488794239237322</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.2012553740468314</v>
+        <v>0.1962585877007091</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05851530811052515</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01798196264964472</v>
+        <v>-0.02346286242198707</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.09521564738087612</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01577610306135544</v>
+        <v>0.05419721898437546</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1217300827953289</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.02420345430484631</v>
+        <v>-0.04153272418215865</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.03672964209805132</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0595129001683254</v>
+        <v>0.07310469767615961</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.05108357181354568</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.01370628927582417</v>
+        <v>0.04551070557721307</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.02669744154988026</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,52 +2358,52 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.02620122581107612</v>
+        <v>0.07877144884594318</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.08958448087202729</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.04183828780628623</v>
+        <v>-0.01279202159044064</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01578303065791778</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05921935466281181</v>
+        <v>-0.05288214815003426</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.05884264495936625</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0189428970182849</v>
+        <v>-0.01198846055269898</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.04607739736004591</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2412,52 +2412,52 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.007909984191960413</v>
+        <v>-0.01813369310068827</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.06378477735429144</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.178223926323061</v>
+        <v>0.003461685981465841</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.04036957938287603</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.06101766916266824</v>
+        <v>-0.03946638047158899</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.04745511206397986</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01502368418029431</v>
+        <v>-0.01181711168677165</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.04307994612606349</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>-0</v>
@@ -2466,22 +2466,22 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1929615172811983</v>
+        <v>-0.06419523667864009</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02160321598204565</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.07038317350054527</v>
+        <v>0.02516577872408063</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.04636640312397224</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.03401120584411214</v>
+        <v>-0.03394225192791031</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01598608936205532</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.06912803859586444</v>
+        <v>0.003274136137471363</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.009506916623704925</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06514611832540167</v>
+        <v>0.01878113309164594</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07524548552523765</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.0323756195602987</v>
+        <v>-0.01954051208215413</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>-0.03270744389299</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,52 +2544,52 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04271047920913077</v>
+        <v>-0.02548992414816162</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.09220206288697939</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.04425830192591233</v>
+        <v>0.002481108621039153</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01509910577467225</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.03372231495442406</v>
+        <v>-0.01820377131185273</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.00423487148416687</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.03659604851363106</v>
+        <v>-0.01103817681854344</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.04044838626000263</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,55 +2598,55 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.05239124065263781</v>
+        <v>-0.04084181996618869</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.04146054470685257</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02192408064137939</v>
+        <v>-0.01042873114484395</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.04549608727936934</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.03492284059088743</v>
+        <v>-0.01506785568625013</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.03872998595282793</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.007841580055526801</v>
+        <v>-0.03121448518745178</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.02754225780732925</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.01431566438750045</v>
+        <v>-0.005337872837503021</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.06424793479696549</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.03465787915166611</v>
+        <v>-0.02633912203657434</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.0410116634475937</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03818892090620424</v>
+        <v>-0.02987078232186148</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06868037459691242</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.03930331638755296</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
@@ -2706,7 +2706,7 @@
         <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,25 +2714,25 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.3335088805180122</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2542880236062608</v>
+        <v>-0.1718798210700208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0534663863659433</v>
+        <v>-0.09657679837963604</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.132404264861001</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.2272681082192037</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1720843256126414</v>
+        <v>-0.1348909013807485</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.006955027081695457</v>
+        <v>-0.1367802725290814</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1534956246185659</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.07692727766988089</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0001086113841042142</v>
+        <v>0.01129439103378408</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1031301853563582</v>
+        <v>0.05012049844368514</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.08042002832852557</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.1164476258749208</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04439214625342566</v>
+        <v>-0.02905313487798898</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.006371947448204968</v>
+        <v>0.04241381139693123</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.03789290277535259</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.001717949304720661</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.08015098941353659</v>
+        <v>-0.03730414733384479</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.09762126685158161</v>
+        <v>-0.05781634050794513</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.02606606255381143</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.447835886768118</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1880500715735696</v>
+        <v>0.04197628357181927</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1157979087001632</v>
+        <v>0.2024629361458747</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1975699974367111</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02249056670993105</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.07634653940786923</v>
+        <v>-0.1170958421420257</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.0663805835778553</v>
+        <v>-0.1566085411290471</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.04174845214396784</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1597485681554855</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.001190582737413069</v>
+        <v>0.02058281572660773</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02159614469669641</v>
+        <v>0.1782385528491275</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1075541978817576</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.1906167351796485</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1396433713873874</v>
+        <v>0.02721571375246943</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0395496100170642</v>
+        <v>0.062558839772707</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,52 +2948,52 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.1230731653187389</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.08215919566987412</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.07923313668487093</v>
+        <v>0.02564254068884166</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001147863981364499</v>
+        <v>-0.01608438139794436</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.06188102667649585</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.07305604213217244</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.09090364863577975</v>
+        <v>-0.09920749152978464</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.1463240422350061</v>
+        <v>-0.1526619387332123</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,115 +3002,115 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.04312543299659685</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.05539880264820393</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.06953842268407182</v>
+        <v>0.04947797372035729</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01993924217300153</v>
+        <v>-0.0004540019086768565</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.04678131313223541</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.003469217697086243</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.004192634374239992</v>
+        <v>0.02486806412684533</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1021221688138915</v>
+        <v>0.005607105871215443</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01828470337127173</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.06735999268340846</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.05477859182678795</v>
+        <v>-0.02252782042190756</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04137502628787933</v>
+        <v>-0.0491842556322966</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0324969938152114</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.06080172540166827</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01681704850164727</v>
+        <v>-0.06361860567073456</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.01824640397905201</v>
+        <v>-0.07447463162011643</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.04750790917905771</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.04117726383732431</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.1287085782316759</v>
+        <v>0.07075196769870337</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.0495538801505361</v>
+        <v>0.0950100708810547</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.06807225696171819</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.06403980062787472</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.0728795040416083</v>
+        <v>0.04869113498482067</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.08359411307562664</v>
+        <v>-0.01708397855701358</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.08961395569974409</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.06618806276662204</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.07521966058647565</v>
+        <v>0.04790749105121976</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01070184266047839</v>
+        <v>0.01080079271186951</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.06162962130494733</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,25 +3200,25 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.05905555448103837</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.1147773069316286</v>
+        <v>-0.0933478857268315</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01342503261025955</v>
+        <v>-0.0441405638010681</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.03658574160227784</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
         <v>0</v>
@@ -3227,25 +3227,25 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.03162135516474466</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.02315037570756974</v>
+        <v>0.0009933156805433567</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0613092056930877</v>
+        <v>0.0595012020103181</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.08768130669993042</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
@@ -3254,54 +3254,54 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.04398435422480402</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.02344189998166598</v>
+        <v>-0.05302685703060377</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.0008997300434241415</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07093710221025665</v>
+        <v>0.09155726892794432</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1974909258236</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07306705528061831</v>
+        <v>-0.05434175338288848</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.02850860854457218</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06636600844655352</v>
+        <v>0.0555568955727716</v>
       </c>
       <c r="L6" t="n">
         <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1664763463026608</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02864039085985911</v>
+        <v>-0.06627821707284171</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.04873415699711816</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,133 +3331,133 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.00983837623525897</v>
+        <v>0.02279079542534336</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0502389415011578</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.08706555953327898</v>
+        <v>0.006312019210637838</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.009373878497675472</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02976491693449278</v>
+        <v>0.03161991447816149</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07127359522236684</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02594703880482093</v>
+        <v>0.02434248553121171</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.005642651969465897</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03048627286471252</v>
+        <v>0.01427244491811171</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01203185944229642</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.0007584916978090616</v>
+        <v>-0.01914858411591316</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.008478467948656225</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1309417223216649</v>
+        <v>0.1173283001964762</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.05764963366152989</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01839734448502798</v>
+        <v>-0.01043588545688789</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.02451538352454008</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01210605497210022</v>
+        <v>0.01980971144246918</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.1076234319699019</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.0002514082920287301</v>
+        <v>-0.05320749255392297</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.009472138215214927</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,79 +3466,79 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03086205319609265</v>
+        <v>0.05514073890636592</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.02803091518984567</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02438352356895822</v>
+        <v>0.03433738782794238</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01963390781625608</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01971218860764022</v>
+        <v>0.03808920357926163</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05604665898483527</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01646659830703749</v>
+        <v>-0.01377263357403621</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.009383770129293614</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03281020390400959</v>
+        <v>-0.01991979071534013</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.05109466139649201</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.007061191414841226</v>
+        <v>0.003416936930852466</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01218975061174333</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
@@ -3547,136 +3547,136 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02020002399410718</v>
+        <v>-0.02231347029072397</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.04935655166708312</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1173777091340634</v>
+        <v>-0.01076754750365929</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.007473839918650975</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03442085086550498</v>
+        <v>-0.009159819477270131</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03911647694211622</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.000359298841917976</v>
+        <v>0.003052391654949866</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.01264087440546567</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1061073768223222</v>
+        <v>-0.02159421409210088</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01580427205544296</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.001646397446658723</v>
+        <v>-5.023683709288758e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.0110984357359164</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01102107963893645</v>
+        <v>-0.01309040896644671</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.009684992686627166</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.04891134714658331</v>
+        <v>0.02109022287092324</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.0125387733395644</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.002792549753128007</v>
+        <v>-0.01207914957957498</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04685976385748188</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.006695153722913855</v>
+        <v>-0.01369488463972503</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.0006703986817457339</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3688,46 +3688,46 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03789426509727011</v>
+        <v>0.00227988585689788</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.09341592687223665</v>
+        <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.02619621014849411</v>
+        <v>0.001280735296559006</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.004305638599889442</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.008001868909737468</v>
+        <v>-0.001994265892152101</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.009704073855104516</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01292467054753355</v>
+        <v>-0.01842260863139432</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03959752622952343</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3736,31 +3736,31 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02491952393744571</v>
+        <v>-0.007528586982339908</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.03887428261134305</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01213142117621414</v>
+        <v>0.002341058439725398</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01752490267980098</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
@@ -3769,46 +3769,46 @@
         <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.05716121262829613</v>
+        <v>-0.01860244113421811</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.03243774644833435</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.002132078032594093</v>
+        <v>-0.01767024976888716</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01784752456729287</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.002782608540135233</v>
+        <v>-0.008844071841939463</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04102066042852414</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02602725302191075</v>
+        <v>-0.01242901308197458</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.01399767290299137</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
@@ -3820,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.03069198650034943</v>
+        <v>-0.03672852049414889</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03718470034766663</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.007986591572573748</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3844,7 +3844,7 @@
         <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,19 +3852,19 @@
         <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2874199882268439</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07114612303404481</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.333364704586515</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.007196831037357352</v>
+        <v>-0.093810885984543</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.04566756625902345</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1882591349920079</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1047261160038259</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.312333379849555</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1908458831158863</v>
+        <v>-0.1830208618672619</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,157 +3900,157 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.06738203886952203</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.06344371144868824</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.01858760048148729</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.04069734933288218</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1948406051198308</v>
+        <v>0.001361942020061614</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>-0.00756820834275105</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.07236276386464857</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.0008830188364833433</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1074037513691401</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.0175192473271808</v>
+        <v>0.01375298557375256</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01376222601707712</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.04645164955970425</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.02662914610495392</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1140882917702396</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.0003621237301802878</v>
+        <v>-0.03347664314559291</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>-0.01872247231765146</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3202107158285772</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1225549895092623</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1630774616097969</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.005577644762397979</v>
+        <v>0.07529408308114849</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.002220728230328939</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.02915193884997413</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01105640997962081</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.2169276693411931</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03793876139063457</v>
+        <v>-0.1397427023920363</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.01047799585937077</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.06767407240636317</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.06049151377983554</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.04827077648743047</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1198218016388043</v>
+        <v>0.1038845452145339</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02784255337884259</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1494195141722686</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01505273224409823</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1546801305169936</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.009123985571395004</v>
+        <v>0.02067812640159984</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0.003983946693078048</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.05377817007123971</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03224456451118905</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.1007149024562945</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.05551455482173316</v>
+        <v>0.005889106092119946</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>-0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03184260741374444</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.07834593615710055</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.008026027064150273</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.1737327089050296</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1024019018073194</v>
+        <v>-0.04794714885436763</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,49 +4143,49 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>-0.01984306427081275</v>
       </c>
       <c r="CV7" t="n">
         <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.04586897717559121</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.03344023284467119</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.0762436396670155</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.03997502975062498</v>
+        <v>0.007464144218937398</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03359590239483876</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.1405270018383068</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02043006989959184</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.03252760491254892</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.1311448409746826</v>
+        <v>0.02244521234795919</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.02103250398549152</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.003197227921657273</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.04117878979260287</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01576804421660706</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.06331991367997539</v>
+        <v>-0.0246924671970051</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,25 +4221,25 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.001303431516596525</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.04971599110415038</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.03678509614848626</v>
+        <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.06321098528618235</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.05057500546002964</v>
+        <v>-0.02940703934429626</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,130 +4251,130 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.02690884067443644</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.01357420647944415</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03952212849298452</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.1283290322362834</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.008638824868811909</v>
+        <v>0.03949681405604605</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03528492485709253</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03578511666393801</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.004304074091492294</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.036516222532897</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.03467427682896386</v>
+        <v>0.0250789949427812</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.007406077942944277</v>
       </c>
       <c r="EX7" t="n">
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.05636307213257652</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02352664214506639</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.07423245619781603</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.05331003702304811</v>
+        <v>0.01183212590801769</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01696398960736311</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.03744935650471199</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.04253792371092144</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.0347188690479325</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.008182692313320625</v>
+        <v>-0.05650002749211594</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.005646681093431061</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.0126635486712583</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0008377872288407713</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.02712248846924943</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.02698403755939828</v>
+        <v>-0.007193336018542911</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4386,34 +4386,34 @@
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0009336123457845163</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06849685671505673</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.0504844352487329</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.1027829518322801</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.04250657353271534</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4990,16 +4990,16 @@
         <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-1.145367796641713</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9068792750544094</v>
+        <v>0.8704267797997031</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2752587721237872</v>
+        <v>0.06198772676071262</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
@@ -5008,106 +5008,106 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7210437730364846</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.7390953476342683</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7840929998372442</v>
+        <v>0.7558135720200908</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5369205697947798</v>
+        <v>0.186541689048583</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.9342134704659286</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0.1239249202748486</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05690874416831141</v>
+        <v>0.3142604411852363</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.7335781501878991</v>
+        <v>0.3934455676498612</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.435799292024407</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>-0.1233311076209628</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3038270277725583</v>
+        <v>0.06015575222921879</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.1001210356094797</v>
+        <v>0.1840443919993891</v>
       </c>
       <c r="AG9" t="n">
         <v>-0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2196575092424489</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.2055167908398962</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.2052587043893123</v>
+        <v>0.1298575302015456</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1648776754893357</v>
+        <v>0.083044142423464</v>
       </c>
       <c r="AP9" t="n">
         <v>-0</v>
@@ -5116,133 +5116,133 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.1005434204873677</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>-1.158127204021963</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.5111018955436855</v>
+        <v>0.2159129876810474</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.167014907917573</v>
+        <v>-0.1721975769108645</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.4152077114205376</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.1234760047875392</v>
       </c>
       <c r="BE9" t="n">
         <v>-0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.441124518843856</v>
+        <v>0.1774869195798401</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.1556879942489661</v>
+        <v>0.3406703563680545</v>
       </c>
       <c r="BH9" t="n">
         <v>-0</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.1899121107943403</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>-0.2938774585125413</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.06276963919349904</v>
+        <v>-0.1221594046818155</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.05939071564054545</v>
+        <v>-0.2142832978620512</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.1872887342196594</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>-0.6466282426641531</v>
       </c>
       <c r="BW9" t="n">
         <v>-0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.476926751973959</v>
+        <v>0.1686113610967424</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.1355073561144332</v>
+        <v>0.03844240196481897</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.4946880038902536</v>
+        <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>0.2087152835260378</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.2263260940768863</v>
+        <v>-0.1373297640241404</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.1799277069977403</v>
+        <v>0.0437549411641403</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
@@ -5251,34 +5251,34 @@
         <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.1683010013053109</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>0.03345267860020789</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.305507865283148</v>
+        <v>0.2895303352290781</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.4817279320900951</v>
+        <v>0.07247539018602982</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.2044589014814182</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
@@ -5287,16 +5287,16 @@
         <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.1770123543012264</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.2044538011458759</v>
+        <v>-0.1896612579030334</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.2112497353740359</v>
+        <v>0.04366402407180417</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
@@ -5305,25 +5305,25 @@
         <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.1875821301563083</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.0005205970667328017</v>
       </c>
       <c r="DG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.02203995380672864</v>
+        <v>-0.2055769212235845</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.154814463079847</v>
+        <v>-0.188563602184255</v>
       </c>
       <c r="DJ9" t="n">
         <v>-0</v>
@@ -5332,61 +5332,61 @@
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.07287714124881549</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.1260477709354695</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0.003782530303820079</v>
+        <v>-0.06966915446681622</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.224000530434309</v>
+        <v>0.08496026191270578</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0.04731199915560612</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.1191401724349222</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.1247471005978202</v>
+        <v>-0.03568028603132783</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.1060800097228794</v>
+        <v>0.1043029673122801</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>-0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.1514213435009842</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
@@ -5395,70 +5395,70 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.0808784335647595</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.4140954280131884</v>
+        <v>-0.07176945283228091</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.005367617496464599</v>
+        <v>-0.04049269857100634</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.2598312624881948</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>0.1266140294451254</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.07507981079555766</v>
+        <v>0.140612226269584</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.1715484616633586</v>
+        <v>0.1322717323173696</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04626159351233335</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>0.1599840864313558</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.1931300417323352</v>
+        <v>-0.1756433088671348</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.2071593702169775</v>
+        <v>0.02645829197386331</v>
       </c>
       <c r="FC9" t="n">
         <v>0</v>
@@ -5467,117 +5467,117 @@
         <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.2099876090484868</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.1503830926543194</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.08513978216031104</v>
+        <v>-0.1448911399280873</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.06814611728910559</v>
+        <v>-0.03134967147027713</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.06711017266034519</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
         <v>-0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.07086593710505849</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.1156574037124053</v>
+        <v>0.02652760450527549</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.04108032118881532</v>
+        <v>0.02481957558809295</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.06675245969790207</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.03786430772217643</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.1173937394113935</v>
+        <v>0.04599296161639747</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
         <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.05782272161942375</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>-0.6585257446206211</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2066686240168333</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01354175820652589</v>
+        <v>-0.0208317529578077</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06665937478463464</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0</v>
+        <v>0.5846146432078471</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4826907627100588</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
@@ -5586,25 +5586,25 @@
         <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>-0.4138256724778381</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.1327520854793668</v>
+        <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1596624250632569</v>
+        <v>0.01155601913872675</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01995235050480889</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.4781001620598246</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5883585566116721</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.1392375850983012</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.03409423977566065</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2447468175908479</v>
+        <v>-0.2039828585686054</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05586273745176309</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0</v>
+        <v>0.04673519939030053</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2177091500485219</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>-0.2695592715076057</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1345373501191203</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04385552654881292</v>
+        <v>-0.0905308955122797</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.03955846712183687</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.175745494526946</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.09500738913668341</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0.0344058034367472</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.05152155798498703</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.1668250979178403</v>
+        <v>0.07089495094679188</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.03370401928483508</v>
+        <v>-0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0.09990695388052917</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.04706376564514494</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
@@ -5694,25 +5694,25 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-0.7765959396604459</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.1150650994422113</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.08817038095900533</v>
+        <v>-0.1438954104669604</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.1986660815894759</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0.3831221749407701</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.3730301148792145</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>-0</v>
@@ -5721,522 +5721,522 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>-0.1129760334597469</v>
       </c>
       <c r="BE10" t="n">
         <v>-0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.1088152592727989</v>
+        <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.1666643433972827</v>
+        <v>-0.08472063882815818</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.009264549819236847</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>0.1778238092514265</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.05243458825268605</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.1062369915690922</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.04125334251279515</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0255944435160967</v>
+        <v>-0.2030647140620579</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.09277349751246679</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>0.01208075348693343</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0.1024368605620678</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>-0.225086636861799</v>
       </c>
       <c r="BW10" t="n">
         <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.04311624034785719</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.02919669091460385</v>
+        <v>-0.02134917483838162</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.08387450270682906</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0.1310012083757751</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.3229185863217418</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
         <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>0.2113658380613717</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.04876607890644192</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.02982043776386368</v>
+        <v>-0.01301619058940494</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.05726465678638797</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>-0.1322864344702179</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0.09792897270233561</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.1840034739937267</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.02280444979626106</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.2298149852928094</v>
+        <v>0.2377991591950962</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.03822675711705063</v>
+        <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>-0.09339309222781579</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.09967265686980856</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>0.188031975695322</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.02410742329482427</v>
+        <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.0496591305266717</v>
+        <v>0.03007776060277606</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.03377118177128864</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>-0.1040633581070371</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0.1009505951156874</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>0.4206179240445758</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05576555081440702</v>
+        <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0502080859823958</v>
+        <v>-0.06617963892686472</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.004596156903893961</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0.01196859144245468</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.01939426235328021</v>
+        <v>-0</v>
       </c>
       <c r="DM10" t="n">
         <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.1095272457956588</v>
       </c>
       <c r="DP10" t="n">
         <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0.05233921966945389</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.0142336696526016</v>
+        <v>0.02611908855702139</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.07019903992689802</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0.04664098642439755</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.05788719588950084</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>0.2061102419363883</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.02325659828892059</v>
+        <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.007644463409285831</v>
+        <v>-0.1002181045916844</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0.01607685567873421</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>0.1107925381592063</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.09199438121009729</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>0.1944696856102987</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.1860089056632186</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.01612590325838077</v>
+        <v>-0.02752863341648102</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.05630725002883838</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>-0.1400142848769518</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.1561535650457845</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.03972325593950524</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.01348727947489791</v>
+        <v>0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.06115460950306124</v>
+        <v>0.06346423640086826</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.02867977857988731</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0.02604635971505224</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.001365112778919383</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
         <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>0.1803693879707713</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.04165062678921927</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.04446785613720244</v>
+        <v>0.002524419619318435</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.03093384354366959</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>-0.1164432064593517</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0.1077622744650001</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.0197885536734893</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01430444721860994</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.07256845640079904</v>
+        <v>0.1779868139214045</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01447675888662085</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>-0.1068423583349942</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.005260849357979356</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.07717831082227264</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.07722004868986866</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.1172080226085376</v>
+        <v>0.06863956461892291</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.09373340569382564</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>-0.00281090054840362</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0.1641998320138596</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.07881343808399631</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.1079025539795919</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0.01580365124357534</v>
+        <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>0.03449716768200842</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.02645769198222738</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.1338348978261612</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.08263894845971984</v>
       </c>
       <c r="C11" t="n">
         <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1196462609269743</v>
+        <v>-0.01154699669892753</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4945318527105743</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3869774901690135</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.08444415598751591</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.07361351381067802</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1795979646708441</v>
+        <v>-0.1202295641571193</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.4297973812763747</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5296761477230607</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>-0.01066840327067597</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.07335312673787615</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1021206955840987</v>
+        <v>0.105302223934785</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1776469559580877</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05503907906723841</v>
+        <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.04000092375131312</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.1311781051572902</v>
       </c>
       <c r="AD11" t="n">
         <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1134331656066225</v>
+        <v>0.05008256604567302</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1280452720933443</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.08040742515343383</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.01147586378543222</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.02524903747548366</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
@@ -6245,25 +6245,25 @@
         <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.2282966277698046</v>
+        <v>0.03547707329638132</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.002721219144145002</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.003662702839459147</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0.02088942516082826</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.1686198193492331</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
@@ -6272,25 +6272,25 @@
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1071557802458787</v>
+        <v>0.2198607508625486</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.2519180157422334</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1956865341599376</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>-0.04279524592258969</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0.01101905933117242</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6299,25 +6299,25 @@
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.03829666973678819</v>
+        <v>-0.1370147441331965</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.04348471186994646</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.1855117792824974</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.03804444172611849</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>0.04864576759465348</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6326,160 +6326,160 @@
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01993473929759144</v>
+        <v>0.07978456692799515</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.06423176079969788</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.004731731532829431</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0.006066807748124372</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.08840306755869493</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX11" t="n">
         <v>-0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.05012545849731891</v>
+        <v>0.07905192921183499</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.3077101010556672</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.1341433327708785</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>0.02716864490401043</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.01089520915294411</v>
       </c>
       <c r="CF11" t="n">
         <v>-0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.061087732071494</v>
+        <v>-0.009448706022791208</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.07438873441207981</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0.09828909645129782</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0</v>
+        <v>-0.03708420063936621</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.07928632718024156</v>
       </c>
       <c r="CO11" t="n">
         <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.06823879943171091</v>
+        <v>-0.08621854434735013</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.1715226000824421</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.04159122356571836</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0.0160188097356615</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.002319532205424769</v>
       </c>
       <c r="CX11" t="n">
         <v>0</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.04008324080509047</v>
+        <v>0.006136856092353616</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.08591611743939541</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0.1270301425003699</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>0.04732419591393504</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0</v>
+        <v>-0.09233885632789048</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.04300943644570773</v>
+        <v>0.001716176709267077</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.02465047470667155</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.03920788239797161</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>0.03926442950834368</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.01782732862654791</v>
       </c>
       <c r="DP11" t="n">
         <v>-0</v>
@@ -6488,25 +6488,25 @@
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.0812832791106493</v>
+        <v>0.08345842215410899</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.00757576613452899</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.08399553862226106</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0.01312801518793354</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>0.02986044600754936</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
@@ -6515,133 +6515,133 @@
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.1319034422183264</v>
+        <v>-0.002060045468957204</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.07744315392257414</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.03116132669663239</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0.01749742304653857</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>0.05020283518573707</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0560915337226062</v>
+        <v>-0.005245538400809677</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.04303241091587259</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.09873745177531765</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>-0.006678501024510885</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>-0.05934440909241838</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.1053785582064229</v>
+        <v>-0.001052149874898258</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.05767466086222837</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.03384549332478674</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>0.02159097708579868</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.01658425744736751</v>
       </c>
       <c r="EZ11" t="n">
         <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.09919263702253184</v>
+        <v>-0.01784032160685237</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.09206396473991858</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0.1507190340746321</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0.03439140214710651</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>0.03463281537546917</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.2238307482617135</v>
+        <v>-0.07943901003356045</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.178460019061665</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.1066400511525687</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0.07400196149409533</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.01319962537667771</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
@@ -6650,3459 +6650,45 @@
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01183912581435254</v>
+        <v>-0.004024545422736414</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.02677899041339001</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.05255826154586676</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>-0</v>
+        <v>0.01480819807646421</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.04855946916133372</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.06095005020336536</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.0494489856949363</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.08752363714170762</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.637144259166104</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5753382420880437</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.1157543249423045</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-0.481983017746921</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.828905873402228</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.1952156296596192</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-0.09148604170515823</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.1896183046245104</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.1009907614807834</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.1084650766959921</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.02122707963461428</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>-0.3594069538620887</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>-0.0389555581731641</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>-0.00169276530870925</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>-0.0542536161023101</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>-0.2468994070703625</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.2889594143976834</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.003569397441752407</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>-0.07735380299796464</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0.215865310599395</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0.01354257768733575</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>0.09164970855497478</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>-0.02366943911511482</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>-0.1663508721909941</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>-0.4169793557347364</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>0.2557669880870116</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>-0.009878318481587985</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0.1126673605253272</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>-0.1489298422789992</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>-0.1072528810069078</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>-0.1763331080116467</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>0.04238282291784768</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>0.01083209007894241</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>0.1301897772683182</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>-0.1774747270106189</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>-0.1528228211003743</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>0.2277925156758046</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>0.03161769134670106</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>-0.1296555576548067</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>-0.01467994417569763</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>-0.1459500750184234</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.1817083828178596</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.03575760505086557</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>0.001276858547811943</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>0.2146901336465964</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>-0.09100913268573131</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>-0.1431672003593469</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>-0.03325632564816292</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>0.05175735468640024</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>0.0147684527210687</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>-0.06131747329943486</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0.1352572515848841</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>-0.2064775302847737</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0.2939424908089059</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0.1895518185451718</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0.1343015162588202</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0.005980228288178093</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0.2437075974539058</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>-0.07930902087721238</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>-0.06782325268165057</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>-0.1173222116973472</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3680673944552651</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.002642499526058431</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.001177862334862082</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.1303668233287081</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.3708152397424063</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.04503876177768193</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.002333672189599009</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.1647530356200847</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.003540714124765094</v>
-      </c>
-      <c r="V13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>-0.03219462169457715</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.03150150690543021</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.07640248393984139</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>-0.05163013972426966</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.01058373044439837</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.03564896286145568</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>-0.005828552216724288</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.08729657433233497</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.05933068712094368</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>-0.00858574572695933</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0.004298768166174972</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0.1484832186533339</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0.04597046268911623</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>-0.002840655636665578</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>-0.1037268212606665</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0.1162610328531249</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>-0.08585672636023051</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0.01382388312401139</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>-0.05522832421834662</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>-0.08614810088892505</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>-0.04493522003018634</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0.00862736674293392</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0.05506431233357528</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0.14804811259579</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0.01201068716687154</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>-0.0006161892764426286</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>-0.04178150159080633</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>-0.08642024862050228</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>-0.006337056663367369</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>-0.01503091128649214</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0.02889573935019791</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0.02985442531636388</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0.1047766347011265</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>-0.0211103458692158</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>0.05033881271948314</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>-0.08709296815182956</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>0.02449808219816587</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>-0.01457095918502498</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0.02646056784802862</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>-0.01638532432424014</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>-0.001834974777213203</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>-0.01191831286537531</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>0.03661134429128961</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>0.0004643107006723785</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>-0.0169123135105692</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>-0.004962612368303008</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>0.0209575245948201</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>0.03511894374078996</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.03167743817583586</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>0.007954194795774071</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>0.0117269359935058</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>-0.1153683767354728</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>-0.04480575484078075</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>0.002009122710115074</v>
-      </c>
-      <c r="EM13" t="n">
-        <v>0.04496746954975773</v>
-      </c>
-      <c r="EN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>-0.02140840226421168</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>0.06527032423671868</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>-0.0225138739638417</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>-0.001623836292101995</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>-0.08580535469273466</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0.009855412982928847</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>-0.01264374986375862</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0.04144088177898246</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>-0.06190970000020505</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0.01495738519065301</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>-0.001783869415870245</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0.001848169344186658</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>-0.01103435112355371</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>-0.007017166303256583</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0.02482060274797871</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>-0.005768295962594927</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0.04127824896653138</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0.01496183969137657</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0.02988926589825267</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1891285277366232</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.03001034295372771</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.01481149823367497</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.1926116080135323</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.02124999810247542</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-0.05022462128128272</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.002134116504219942</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>-0.07609615506756895</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-0.04947932845504566</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.006874259072093585</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.124322668988369</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.04749381245822314</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0.0658695370864131</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.03199554063141712</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>-0.002733716198109399</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0.0947831531173888</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0.04356506904235483</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.003883665193514867</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0.0302031830052592</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>-0.04872016112156658</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>-0.00929976881533252</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>-0.03212639672768262</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>-0.06019412897268305</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>-0.01298473047183699</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0.06588107922734414</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>-0.03425590907651006</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>-0.04613454827169338</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>-0.04131860130471983</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>-0.01658477925631057</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0.006955742063375416</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0.04819315359250512</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0.09778200766806901</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>-0.00610818306217259</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>-0.03806594566426126</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0.001875915462326586</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0.0110185289591743</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>-0.04050831411507766</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>-0.04844817591172913</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>-0.0891790053370491</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>-0.01817185089664941</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>-0.03860584168764122</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>-0.007867980043960087</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>0.02242545528672585</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.03465518412644036</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.007555979662408452</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>-0.03814352761286718</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>-0.03344656403492449</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>0.02337317466527372</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ15" t="n">
-        <v>-0.001329860501275696</v>
-      </c>
-      <c r="ER15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES15" t="n">
-        <v>0.02657071217280954</v>
-      </c>
-      <c r="ET15" t="n">
-        <v>0.06942845252927493</v>
-      </c>
-      <c r="EU15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ15" t="n">
-        <v>-0.04354480186506085</v>
-      </c>
-      <c r="FA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB15" t="n">
-        <v>-0.007397103789656694</v>
-      </c>
-      <c r="FC15" t="n">
-        <v>0.00213679615759885</v>
-      </c>
-      <c r="FD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>-0.03658684529290983</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0.02147849629282473</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0.03622738578255445</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>-0.0004043817144190705</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>-0.0027996793629571</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0.008265279725929974</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0.01326024273566981</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0.01065371761204207</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1785155692468257</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.01631295845000398</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.09238524372154835</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1668731436334653</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.03139187224430927</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.103218866800791</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-0.01915043907890262</v>
-      </c>
-      <c r="V16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-0.03969314674312471</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-0.03564663177683244</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.005256494514749506</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.04597834455616534</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.02022629022151781</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.03408447196698514</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.06978555119368002</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>-0.01030033815836035</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0.08177197893409634</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0.02665797196534899</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>-0.1248733704009669</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0.05368132516855666</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>-0.03278816502724477</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>-0.02458725269929539</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>-0.02230157887563973</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>-0.02100337820405254</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0.06204463267593305</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0.05513058960174784</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0.002203432656817063</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>-0.02893321231408704</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>-0.03705045505268346</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>-0.004794432091793031</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0.02793736812353168</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0.0204216662169455</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0.05077089455231475</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>0.02685671979368466</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>-0.03499443225501066</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>0.01005791591145793</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0.01929380136591264</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>-0.01124193977139453</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>-0.04354767740576194</v>
-      </c>
-      <c r="DJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>0.003082866842434093</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>-0.01270232571591006</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>-0.02072000434028547</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0.00792549065018068</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0.0154551054174392</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.01644695234764059</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>0.00904711666015953</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>-0.03619494953705912</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>-0.0471261859910618</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM16" t="n">
-        <v>0.04973632231281504</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>0.02407150332437792</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>0.0356401329055548</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>0.0152675918697282</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>-0.03752999174796351</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>0.001897096385869795</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>0.02702147226747817</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>-0.04814215325889717</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0.04313263756963599</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>-0.004731948650537392</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>-0.001939161586829383</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>-0.000451809878167194</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0.007494765776931791</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>-0.004770291033999874</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>0.03464140136803376</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.2412226599386527</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5112577194451868</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.03016744168969379</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.2509142224594633</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.5331275806294147</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-0.03843567152084326</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.1339319851301728</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.08918102737578379</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>-0.07693984521607826</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>-0.1745308755662772</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>-0.05244503869809377</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.02851901143043122</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.08907936324430445</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.1195754938867025</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.0349536906345448</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>-0.2192659397884427</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0.1402611546815029</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0.1048582541073624</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>-0.1137159997737937</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0.1717213718315127</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>-0.1539213545084051</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>-0.01397302338884326</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>-0.09053926820485932</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>-0.0678713124472631</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>-0.09036867215372847</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0.1853991729445726</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>-0.01400943013164364</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0.0553851382759606</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>-0.0716343453273362</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0.003058280026615562</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0.02388610188529625</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0.07592417928660061</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0.1186351345975896</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0.03543590635382243</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>-0.07532804191289119</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0.02706431566327297</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>0.1208608815798918</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>0.01987519313360387</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>-0.02655254493240779</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>-0.03444772196235808</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0.04666044262780525</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>-0.06220229391551557</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.002674351905692717</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>0.0378189500366051</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>-0.04396177373513559</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>0.05981416732825211</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>-0.04705471938722437</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>-0.03172647029590829</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0.1011243907985304</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>-0.08904637428683373</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>0.08755708633674972</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0.02849269912409041</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>-0.08457535599293328</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0.02893611418744298</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0.07596834577325733</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>-0.1047993430590501</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0.005864019964524778</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0.07723347421857259</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>-0.008390796207322807</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0.001485368555874533</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0.01068341350511199</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0.1051517200827501</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GG17" t="n">
         <v>0</v>
       </c>
     </row>
